--- a/results/SourceMeter/Java - SourceMeter (RossetaCode).xlsx
+++ b/results/SourceMeter/Java - SourceMeter (RossetaCode).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UROS\Documents\GitHub\RossetaCode_Metrics\results\SourceMeter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\results\SourceMeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>aks-test-for-primes</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>METHODS</t>
+  </si>
+  <si>
+    <t>HVOL</t>
+  </si>
+  <si>
+    <t>MI</t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -328,7 +334,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,14 +341,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +640,7 @@
   <dimension ref="B2:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M37" sqref="L36:M37"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,32 +653,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
@@ -1814,7 +1827,7 @@
       <c r="K35" s="10">
         <v>66</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="18">
         <v>6</v>
       </c>
       <c r="N35" s="2"/>
@@ -1827,40 +1840,47 @@
         <f t="shared" ref="C36" si="0">AVERAGE(C5:C35)</f>
         <v>#REF!</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="25">
         <f t="shared" ref="D36:K36" si="1">AVERAGE(D5:D35)</f>
         <v>78.325806451612905</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="25">
         <f t="shared" si="1"/>
         <v>30.955913978494625</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="21">
         <f t="shared" si="1"/>
         <v>2.7537634408602156</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="26">
         <f t="shared" si="1"/>
         <v>2.225806451612903</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="26">
         <f t="shared" si="1"/>
         <v>40.903225806451616</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="26">
         <f t="shared" si="1"/>
         <v>37.12903225806452</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="26">
         <f t="shared" si="1"/>
         <v>40.903225806451616</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="27">
         <f t="shared" si="1"/>
         <v>37.12903225806452</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="23">
+        <f>D36*LOG(E36,2)</f>
+        <v>387.88060593517491</v>
+      </c>
+      <c r="N36" s="24">
+        <f>171 - 5.2 * LN(M36) - 0.23 * (F36) - 16.2 * LN(I36)</f>
+        <v>80.817739906811312</v>
+      </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C37" s="6" t="s">
@@ -1890,8 +1910,13 @@
       <c r="K37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/results/SourceMeter/Java - SourceMeter (RossetaCode).xlsx
+++ b/results/SourceMeter/Java - SourceMeter (RossetaCode).xlsx
@@ -345,18 +345,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,18 +651,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -1840,11 +1838,11 @@
         <f t="shared" ref="C36" si="0">AVERAGE(C5:C35)</f>
         <v>#REF!</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="23">
         <f t="shared" ref="D36:K36" si="1">AVERAGE(D5:D35)</f>
         <v>78.325806451612905</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="23">
         <f t="shared" si="1"/>
         <v>30.955913978494625</v>
       </c>
@@ -1852,34 +1850,34 @@
         <f t="shared" si="1"/>
         <v>2.7537634408602156</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="24">
         <f t="shared" si="1"/>
         <v>2.225806451612903</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="24">
         <f t="shared" si="1"/>
         <v>40.903225806451616</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="24">
         <f t="shared" si="1"/>
         <v>37.12903225806452</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="24">
         <f t="shared" si="1"/>
         <v>40.903225806451616</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="25">
         <f t="shared" si="1"/>
         <v>37.12903225806452</v>
       </c>
       <c r="L36" s="20"/>
-      <c r="M36" s="23">
+      <c r="M36" s="22">
         <f>D36*LOG(E36,2)</f>
         <v>387.88060593517491</v>
       </c>
-      <c r="N36" s="24">
-        <f>171 - 5.2 * LN(M36) - 0.23 * (F36) - 16.2 * LN(I36)</f>
-        <v>80.817739906811312</v>
+      <c r="N36" s="27">
+        <f>MAX(0,(171 - 5.2 * LN(M36) - 0.23 * (F36) - 16.2 *LN(I36))*100 / 171)</f>
+        <v>47.261836202813633</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">

--- a/results/SourceMeter/Java - SourceMeter (RossetaCode).xlsx
+++ b/results/SourceMeter/Java - SourceMeter (RossetaCode).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>aks-test-for-primes</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>MI</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STDEV.P</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,17 +271,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -296,11 +290,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -333,28 +336,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N37"/>
+  <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,39 +649,40 @@
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="1.33203125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="7.88671875" customWidth="1"/>
     <col min="25" max="25" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
         <v>31</v>
       </c>
@@ -709,11 +713,17 @@
       <c r="K4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,11 +755,19 @@
       <c r="K5" s="9">
         <v>35</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="27">
+        <f>D5*LOG(E5,2)</f>
+        <v>268.22539578614317</v>
+      </c>
+      <c r="N5" s="21">
+        <f>MAX(0,(171 - 5.2 * LN(M5) - 0.23 * (F5) - 16.2 *LN(I5))*100 / 171)</f>
+        <v>48.909858241033795</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,11 +799,19 @@
       <c r="K6" s="9">
         <v>23</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <f t="shared" ref="M6:M35" si="0">D6*LOG(E6,2)</f>
+        <v>244.84430818456065</v>
+      </c>
+      <c r="N6" s="21">
+        <f t="shared" ref="N6:N35" si="1">MAX(0,(171 - 5.2 * LN(M6) - 0.23 * (F6) - 16.2 *LN(I6))*100 / 171)</f>
+        <v>53.164769904601357</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -817,11 +843,19 @@
       <c r="K7" s="9">
         <v>41</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>209.21426185513121</v>
+      </c>
+      <c r="N7" s="21">
+        <f t="shared" si="1"/>
+        <v>48.247173229767405</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -853,11 +887,19 @@
       <c r="K8" s="9">
         <v>33</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>414.37344813641249</v>
+      </c>
+      <c r="N8" s="21">
+        <f t="shared" si="1"/>
+        <v>48.312798772957549</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -889,11 +931,19 @@
       <c r="K9" s="9">
         <v>26</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>721.69321237537906</v>
+      </c>
+      <c r="N9" s="21">
+        <f t="shared" si="1"/>
+        <v>48.716090866745866</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,11 +975,19 @@
       <c r="K10" s="9">
         <v>56</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>407.28596848252488</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" si="1"/>
+        <v>43.220655951689025</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,11 +1019,19 @@
       <c r="K11" s="9">
         <v>9</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="N11" s="21">
+        <f t="shared" si="1"/>
+        <v>64.367093808877954</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -997,11 +1063,19 @@
       <c r="K12" s="9">
         <v>18</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>143.19801136408</v>
+      </c>
+      <c r="N12" s="21">
+        <f t="shared" si="1"/>
+        <v>56.98361989010629</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1033,11 +1107,19 @@
       <c r="K13" s="9">
         <v>31</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>251.33486783030335</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" si="1"/>
+        <v>50.257379606232263</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,11 +1151,19 @@
       <c r="K14" s="9">
         <v>50</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>257.50032219855598</v>
+      </c>
+      <c r="N14" s="21">
+        <f t="shared" si="1"/>
+        <v>45.789425883622492</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,11 +1195,19 @@
       <c r="K15" s="9">
         <v>17</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>536.45079157228633</v>
+      </c>
+      <c r="N15" s="21">
+        <f t="shared" si="1"/>
+        <v>53.777821447762491</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1141,11 +1239,19 @@
       <c r="K16" s="9">
         <v>22</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>512.28634150146263</v>
+      </c>
+      <c r="N16" s="21">
+        <f t="shared" si="1"/>
+        <v>51.273635592059215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1177,11 +1283,19 @@
       <c r="K17" s="9">
         <v>12</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>264.7635454555392</v>
+      </c>
+      <c r="N17" s="21">
+        <f t="shared" si="1"/>
+        <v>59.359391293759558</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,11 +1327,19 @@
       <c r="K18" s="9">
         <v>64</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>435.98905644032214</v>
+      </c>
+      <c r="N18" s="21">
+        <f t="shared" si="1"/>
+        <v>41.499698775038304</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,11 +1371,19 @@
       <c r="K19" s="9">
         <v>31</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>700.31579399924794</v>
+      </c>
+      <c r="N19" s="21">
+        <f t="shared" si="1"/>
+        <v>46.939441038498991</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1285,11 +1415,19 @@
       <c r="K20" s="9">
         <v>16</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>358.20301347942188</v>
+      </c>
+      <c r="N20" s="21">
+        <f t="shared" si="1"/>
+        <v>55.647569126942251</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1321,11 +1459,19 @@
       <c r="K21" s="9">
         <v>41</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>594.68827251260734</v>
+      </c>
+      <c r="N21" s="21">
+        <f t="shared" si="1"/>
+        <v>44.653414190365922</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,11 +1503,19 @@
       <c r="K22" s="9">
         <v>16</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>334.07841195096188</v>
+      </c>
+      <c r="N22" s="21">
+        <f t="shared" si="1"/>
+        <v>55.725092920847132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1393,11 +1547,19 @@
       <c r="K23" s="9">
         <v>77</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>295.4928674109288</v>
+      </c>
+      <c r="N23" s="21">
+        <f t="shared" si="1"/>
+        <v>41.033762025424707</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1429,11 +1591,19 @@
       <c r="K24" s="9">
         <v>22</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>295.38083355454768</v>
+      </c>
+      <c r="N24" s="21">
+        <f t="shared" si="1"/>
+        <v>52.970447407658696</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1465,11 +1635,19 @@
       <c r="K25" s="9">
         <v>44</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>270.45761029931367</v>
+      </c>
+      <c r="N25" s="21">
+        <f t="shared" si="1"/>
+        <v>46.716683022502593</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1501,11 +1679,19 @@
       <c r="K26" s="9">
         <v>27</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>395.99662348395429</v>
+      </c>
+      <c r="N26" s="21">
+        <f t="shared" si="1"/>
+        <v>50.385458017827538</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1537,11 +1723,19 @@
       <c r="K27" s="9">
         <v>50</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>352.98063600501689</v>
+      </c>
+      <c r="N27" s="21">
+        <f t="shared" si="1"/>
+        <v>44.807921250966601</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,11 +1767,19 @@
       <c r="K28" s="9">
         <v>12</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>835.8941141594504</v>
+      </c>
+      <c r="N28" s="21">
+        <f t="shared" si="1"/>
+        <v>55.728831665010496</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,11 +1811,19 @@
       <c r="K29" s="9">
         <v>45</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>221.59474704195759</v>
+      </c>
+      <c r="N29" s="21">
+        <f t="shared" si="1"/>
+        <v>47.217337056257286</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1645,11 +1855,19 @@
       <c r="K30" s="9">
         <v>21</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1139.6745598229536</v>
+      </c>
+      <c r="N30" s="21">
+        <f t="shared" si="1"/>
+        <v>49.529364582585039</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1681,11 +1899,19 @@
       <c r="K31" s="9">
         <v>26</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="25">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>313.27498982933537</v>
+      </c>
+      <c r="N31" s="21">
+        <f t="shared" si="1"/>
+        <v>51.421937413921732</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1717,11 +1943,19 @@
       <c r="K32" s="9">
         <v>27</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>363.30898125013158</v>
+      </c>
+      <c r="N32" s="21">
+        <f t="shared" si="1"/>
+        <v>50.445686396228808</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1753,11 +1987,19 @@
       <c r="K33" s="9">
         <v>169</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="25">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>275.7347960564968</v>
+      </c>
+      <c r="N33" s="21">
+        <f t="shared" si="1"/>
+        <v>33.920305252242009</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1789,11 +2031,19 @@
       <c r="K34" s="9">
         <v>24</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="25">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>175.64901434673362</v>
+      </c>
+      <c r="N34" s="21">
+        <f t="shared" si="1"/>
+        <v>53.838825472950298</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1825,96 +2075,165 @@
       <c r="K35" s="10">
         <v>66</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="28">
         <v>6</v>
       </c>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>135.20235248676696</v>
+      </c>
+      <c r="N35" s="21">
+        <f t="shared" si="1"/>
+        <v>44.782091139726745</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="5" t="e">
-        <f t="shared" ref="C36" si="0">AVERAGE(C5:C35)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D36" s="23">
-        <f t="shared" ref="D36:K36" si="1">AVERAGE(D5:D35)</f>
+        <f t="shared" ref="C36" si="2">AVERAGE(C5:C35)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="29">
+        <f t="shared" ref="D36:L36" si="3">AVERAGE(D5:D35)</f>
         <v>78.325806451612905</v>
       </c>
-      <c r="E36" s="23">
-        <f t="shared" si="1"/>
+      <c r="E36" s="29">
+        <f t="shared" si="3"/>
         <v>30.955913978494625</v>
       </c>
-      <c r="F36" s="21">
-        <f t="shared" si="1"/>
+      <c r="F36" s="18">
+        <f t="shared" si="3"/>
         <v>2.7537634408602156</v>
       </c>
-      <c r="G36" s="24">
-        <f t="shared" si="1"/>
+      <c r="G36" s="19">
+        <f t="shared" si="3"/>
         <v>2.225806451612903</v>
       </c>
-      <c r="H36" s="24">
-        <f t="shared" si="1"/>
+      <c r="H36" s="19">
+        <f t="shared" si="3"/>
         <v>40.903225806451616</v>
       </c>
-      <c r="I36" s="24">
-        <f t="shared" si="1"/>
+      <c r="I36" s="19">
+        <f t="shared" si="3"/>
         <v>37.12903225806452</v>
       </c>
-      <c r="J36" s="24">
-        <f t="shared" si="1"/>
+      <c r="J36" s="19">
+        <f t="shared" si="3"/>
         <v>40.903225806451616</v>
       </c>
-      <c r="K36" s="25">
-        <f t="shared" si="1"/>
+      <c r="K36" s="20">
+        <f t="shared" si="3"/>
         <v>37.12903225806452</v>
       </c>
-      <c r="L36" s="20"/>
+      <c r="L36" s="26">
+        <f t="shared" si="3"/>
+        <v>3.774193548387097</v>
+      </c>
       <c r="M36" s="22">
-        <f>D36*LOG(E36,2)</f>
-        <v>387.88060593517491</v>
-      </c>
-      <c r="N36" s="27">
-        <f>MAX(0,(171 - 5.2 * LN(M36) - 0.23 * (F36) - 16.2 *LN(I36))*100 / 171)</f>
-        <v>47.261836202813633</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="M36:N36" si="4">AVERAGE(M5:M35)</f>
+        <v>382.26087577008144</v>
+      </c>
+      <c r="N36" s="22">
+        <f t="shared" si="4"/>
+        <v>49.665921975619696</v>
+      </c>
+      <c r="O36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="19">
+        <f>_xlfn.STDEV.P(D5:D35)</f>
+        <v>46.258607421217874</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" ref="E37:L37" si="5">_xlfn.STDEV.P(E5:E35)</f>
+        <v>7.3101007210393583</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="5"/>
+        <v>1.0799136238973908</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="5"/>
+        <v>1.5597699875789137</v>
+      </c>
+      <c r="H37" s="19">
+        <f t="shared" si="5"/>
+        <v>34.13479431815226</v>
+      </c>
+      <c r="I37" s="19">
+        <f t="shared" si="5"/>
+        <v>29.358454226122781</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="5"/>
+        <v>34.13479431815226</v>
+      </c>
+      <c r="K37" s="19">
+        <f t="shared" si="5"/>
+        <v>29.358454226122781</v>
+      </c>
+      <c r="L37" s="24">
+        <f t="shared" si="5"/>
+        <v>2.6604593032922916</v>
+      </c>
+      <c r="M37" s="23">
+        <f t="shared" ref="M37:N37" si="6">_xlfn.STDEV.P(M5:M35)</f>
+        <v>219.63245806546334</v>
+      </c>
+      <c r="N37" s="19">
+        <f t="shared" si="6"/>
+        <v>5.911309180681366</v>
+      </c>
+      <c r="O37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D38" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G38" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H38" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J38" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19" t="s">
+      <c r="L38" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N38" s="6" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
